--- a/data/trans_bre/P27_N_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P27_N_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>11,5</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,12</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,62</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>66,13%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>61,33%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>41,07%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>17,89%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>8,41%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>34,06%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>11.013923156751</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>9.513064513779328</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.395148382598133</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>2.338788953508053</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>2.198045542625243</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>6.708694451669514</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.6214556211296404</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.6365191260216352</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.429877992758267</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1401812460089368</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.08407347806279176</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.3478215480431364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>6,83; 15,97</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5,3; 13,23</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,59; 13,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 7,88</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 7,22</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,12; 10,87</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>34,4; 104,94</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>30,78; 100,78</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>16,85; 75,19</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-8,33; 57,48</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-9,41; 30,02</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>9,66; 62,85</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>6.201162769388425</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>5.403301744845236</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.934315539778659</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.178882601296652</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-2.775421660284841</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>2.283697932001091</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.2951848619854399</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.3146785641007394</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.182364958715823</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.1119235332041734</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.09414587030455386</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.09972497413033367</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.48912586143762</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>13.48553267544123</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>13.25560524878026</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.349094225134202</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>7.220917192448064</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>11.03016430973343</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.014015987352648</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.027214685042547</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.7874146920218228</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.5381244672429346</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.3002022108776997</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.6357564654010134</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,42</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,56</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,86</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,97</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11,25</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>10,62</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>51,22%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>45,89%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>44,44%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>12,45%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>54,57%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>73,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 12,51</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 11,48</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,77; 13,16</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,45; 7,37</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,01; 19,95</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,09; 18,96</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>13,66; 103,41</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>9,72; 98,29</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>12,06; 85,72</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-18,66; 55,5</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>11,27; 118,16</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>19,9; 163,46</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>8.056980098569817</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.694592723089412</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.698481748079714</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.396171236980588</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>11.24685784125112</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>10.79338848331608</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.5525054503374028</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3828609190590203</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.4326760191663991</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1551580813988595</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.5456603444931142</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.7448103142347875</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>19,17</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,13</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,26</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>146,12%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>12,61%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>18,76%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>46,8%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.631823682997894</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.2441594357674533</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.732490699802081</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.871647241846699</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>3.005494780945055</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>3.895844895930142</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.1451455948951942</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.007419510536783277</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.1301727101263923</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.1639507721156546</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.1127202908706243</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.2045170759963858</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>9,1; 29,08</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,16; 12,4</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,79; 13,86</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; 16,31</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>37,83; 298,46</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-25,9; 65,86</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-22,12; 84,94</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-25,63; 201,23</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.60816860460531</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>10.70479168733917</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.81168088048183</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.774494206489904</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>19.94809399862568</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>18.61757066522309</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.11426108468763</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.8773984001436886</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.8636726005625928</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.5740253410083682</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.181595008187099</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.562844681192892</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>10,88</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,46</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,59</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,29</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,62</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>69,25%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>47,38%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>39,47%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>18,85%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>17,27%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>41,75%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>19.68318290492934</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.645980615481999</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.750267793746477</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.82382799881566</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>1.517237290412988</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1157327636911033</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2197549623743688</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.5280376232840797</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>7,5; 14,33</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4,72; 10,53</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,37; 10,8</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,05; 6,12</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0,12; 8,38</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,05; 11,65</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>43,27; 99,54</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>27,11; 73,72</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>20,85; 61,09</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-0,28; 44,76</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 37,77</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>20,34; 71,03</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>7.526507968966184</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.23826207466248</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.303457614765321</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.76327632054243</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>0.2282547451054843</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2686019097246043</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2001222546171714</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.2377593236948931</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>29.18288607115944</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.05465153800503</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>14.20879196324283</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>16.52678400881749</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>3.263102418206763</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.6539812413730631</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.886317330690098</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>2.108242917106256</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>10.94351983926637</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.209368051798792</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.725559525695486</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.925278201489443</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>4.286725165014402</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>7.716688744707756</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.6887445264076568</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4537570372229998</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4046824942216263</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.1860447301793888</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.1727285160903056</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.4257788614836331</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>7.195844778526969</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>4.278564119333209</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.495772153654805</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1370774583394899</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.1205280309397397</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>3.786986474169595</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.400784774362183</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2401815848274529</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.2085139745685616</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.006616317621691539</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.004581133486286608</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.1868094680196727</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>14.5976865763754</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>10.42047166416657</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.89949114755513</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.081643257472729</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>8.378088107389994</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>11.30609848353595</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.022120519299898</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7339879319584472</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.6203623584552432</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.4377122826421357</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.3776547166929202</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.668613120885543</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
